--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value832.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value832.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8068875336135711</v>
+        <v>1.077887892723083</v>
       </c>
       <c r="B1">
-        <v>2.2924621643464</v>
+        <v>1.506378412246704</v>
       </c>
       <c r="C1">
-        <v>3.842655241834354</v>
+        <v>3.906706094741821</v>
       </c>
       <c r="D1">
-        <v>1.956911253175696</v>
+        <v>1.7109534740448</v>
       </c>
       <c r="E1">
-        <v>1.398325698246934</v>
+        <v>0.9360960125923157</v>
       </c>
     </row>
   </sheetData>
